--- a/Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/Financials/Yearly/IBN_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3E7BB5-BECA-48E2-9B11-E3914A9D0419}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IBN" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,33 +689,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -707,34 +742,34 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8566000</v>
+        <v>8988700</v>
       </c>
       <c r="E8" s="3">
-        <v>8397500</v>
+        <v>8811900</v>
       </c>
       <c r="F8" s="3">
-        <v>8170700</v>
+        <v>8573900</v>
       </c>
       <c r="G8" s="3">
-        <v>7574000</v>
+        <v>7947800</v>
       </c>
       <c r="H8" s="3">
-        <v>6818200</v>
+        <v>7154700</v>
       </c>
       <c r="I8" s="3">
-        <v>6185100</v>
+        <v>6490300</v>
       </c>
       <c r="J8" s="3">
-        <v>5235700</v>
+        <v>5494100</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -761,7 +796,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -788,7 +823,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,7 +836,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -828,7 +863,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -855,7 +890,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,34 +917,34 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-127100</v>
+        <v>-133300</v>
       </c>
       <c r="E15" s="3">
-        <v>-125600</v>
+        <v>-131800</v>
       </c>
       <c r="F15" s="3">
-        <v>-116200</v>
+        <v>-121900</v>
       </c>
       <c r="G15" s="3">
-        <v>-110000</v>
+        <v>-115400</v>
       </c>
       <c r="H15" s="3">
-        <v>-99100</v>
+        <v>-104000</v>
       </c>
       <c r="I15" s="3">
-        <v>-86200</v>
+        <v>-90400</v>
       </c>
       <c r="J15" s="3">
-        <v>-92500</v>
+        <v>-97100</v>
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,61 +954,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6929400</v>
+        <v>7271400</v>
       </c>
       <c r="E17" s="3">
-        <v>6970100</v>
+        <v>7314000</v>
       </c>
       <c r="F17" s="3">
-        <v>5748400</v>
+        <v>6032000</v>
       </c>
       <c r="G17" s="3">
-        <v>4953800</v>
+        <v>5198200</v>
       </c>
       <c r="H17" s="3">
-        <v>4436100</v>
+        <v>4655000</v>
       </c>
       <c r="I17" s="3">
-        <v>4111500</v>
+        <v>4314400</v>
       </c>
       <c r="J17" s="3">
-        <v>3591700</v>
+        <v>3768900</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1636600</v>
+        <v>1717300</v>
       </c>
       <c r="E18" s="3">
-        <v>1427400</v>
+        <v>1497900</v>
       </c>
       <c r="F18" s="3">
-        <v>2422300</v>
+        <v>2541800</v>
       </c>
       <c r="G18" s="3">
-        <v>2620300</v>
+        <v>2749600</v>
       </c>
       <c r="H18" s="3">
-        <v>2382100</v>
+        <v>2499700</v>
       </c>
       <c r="I18" s="3">
-        <v>2073600</v>
+        <v>2175900</v>
       </c>
       <c r="J18" s="3">
-        <v>1644000</v>
+        <v>1725200</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,61 +1021,61 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-123700</v>
+        <v>-129800</v>
       </c>
       <c r="E20" s="3">
-        <v>475500</v>
+        <v>498900</v>
       </c>
       <c r="F20" s="3">
-        <v>-451200</v>
+        <v>-473400</v>
       </c>
       <c r="G20" s="3">
-        <v>-93900</v>
+        <v>-98500</v>
       </c>
       <c r="H20" s="3">
-        <v>-138500</v>
+        <v>-145400</v>
       </c>
       <c r="I20" s="3">
-        <v>-197200</v>
+        <v>-206900</v>
       </c>
       <c r="J20" s="3">
-        <v>-171400</v>
+        <v>-179900</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1655800</v>
+        <v>1737800</v>
       </c>
       <c r="E21" s="3">
-        <v>2046600</v>
+        <v>2148000</v>
       </c>
       <c r="F21" s="3">
-        <v>2102800</v>
+        <v>2206900</v>
       </c>
       <c r="G21" s="3">
-        <v>2651700</v>
+        <v>2782800</v>
       </c>
       <c r="H21" s="3">
-        <v>2359400</v>
+        <v>2476100</v>
       </c>
       <c r="I21" s="3">
-        <v>1977000</v>
+        <v>2074800</v>
       </c>
       <c r="J21" s="3">
-        <v>1576500</v>
+        <v>1654500</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1067,61 +1102,61 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1512800</v>
+        <v>1587500</v>
       </c>
       <c r="E23" s="3">
-        <v>1902900</v>
+        <v>1996800</v>
       </c>
       <c r="F23" s="3">
-        <v>1971100</v>
+        <v>2068400</v>
       </c>
       <c r="G23" s="3">
-        <v>2526400</v>
+        <v>2651100</v>
       </c>
       <c r="H23" s="3">
-        <v>2243600</v>
+        <v>2354300</v>
       </c>
       <c r="I23" s="3">
-        <v>1876400</v>
+        <v>1969000</v>
       </c>
       <c r="J23" s="3">
-        <v>1472600</v>
+        <v>1545300</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>258900</v>
+        <v>271700</v>
       </c>
       <c r="E24" s="3">
-        <v>340200</v>
+        <v>357000</v>
       </c>
       <c r="F24" s="3">
-        <v>465400</v>
+        <v>488400</v>
       </c>
       <c r="G24" s="3">
-        <v>743000</v>
+        <v>779600</v>
       </c>
       <c r="H24" s="3">
-        <v>635200</v>
+        <v>666500</v>
       </c>
       <c r="I24" s="3">
-        <v>480500</v>
+        <v>504200</v>
       </c>
       <c r="J24" s="3">
-        <v>378800</v>
+        <v>397500</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1148,61 +1183,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1253900</v>
+        <v>1315800</v>
       </c>
       <c r="E26" s="3">
-        <v>1562700</v>
+        <v>1639800</v>
       </c>
       <c r="F26" s="3">
-        <v>1505700</v>
+        <v>1580000</v>
       </c>
       <c r="G26" s="3">
-        <v>1783400</v>
+        <v>1871500</v>
       </c>
       <c r="H26" s="3">
-        <v>1608400</v>
+        <v>1687800</v>
       </c>
       <c r="I26" s="3">
-        <v>1395900</v>
+        <v>1464800</v>
       </c>
       <c r="J26" s="3">
-        <v>1093800</v>
+        <v>1147800</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1062700</v>
+        <v>1115200</v>
       </c>
       <c r="E27" s="3">
-        <v>1404000</v>
+        <v>1473200</v>
       </c>
       <c r="F27" s="3">
-        <v>1402800</v>
+        <v>1472000</v>
       </c>
       <c r="G27" s="3">
-        <v>1687600</v>
+        <v>1770900</v>
       </c>
       <c r="H27" s="3">
-        <v>1520800</v>
+        <v>1595800</v>
       </c>
       <c r="I27" s="3">
-        <v>1392500</v>
+        <v>1461200</v>
       </c>
       <c r="J27" s="3">
-        <v>975800</v>
+        <v>1023900</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1229,7 +1264,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1256,7 +1291,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1318,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1310,61 +1345,61 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>123700</v>
+        <v>129800</v>
       </c>
       <c r="E32" s="3">
-        <v>-475500</v>
+        <v>-498900</v>
       </c>
       <c r="F32" s="3">
-        <v>451200</v>
+        <v>473400</v>
       </c>
       <c r="G32" s="3">
-        <v>93900</v>
+        <v>98500</v>
       </c>
       <c r="H32" s="3">
-        <v>138500</v>
+        <v>145400</v>
       </c>
       <c r="I32" s="3">
-        <v>197200</v>
+        <v>206900</v>
       </c>
       <c r="J32" s="3">
-        <v>171400</v>
+        <v>179900</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1062700</v>
+        <v>1115200</v>
       </c>
       <c r="E33" s="3">
-        <v>1404000</v>
+        <v>1473200</v>
       </c>
       <c r="F33" s="3">
-        <v>1402800</v>
+        <v>1472000</v>
       </c>
       <c r="G33" s="3">
-        <v>1687600</v>
+        <v>1770900</v>
       </c>
       <c r="H33" s="3">
-        <v>1520800</v>
+        <v>1595800</v>
       </c>
       <c r="I33" s="3">
-        <v>1392500</v>
+        <v>1461200</v>
       </c>
       <c r="J33" s="3">
-        <v>975800</v>
+        <v>1023900</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1391,39 +1426,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1062700</v>
+        <v>1115200</v>
       </c>
       <c r="E35" s="3">
-        <v>1404000</v>
+        <v>1473200</v>
       </c>
       <c r="F35" s="3">
-        <v>1402800</v>
+        <v>1472000</v>
       </c>
       <c r="G35" s="3">
-        <v>1687600</v>
+        <v>1770900</v>
       </c>
       <c r="H35" s="3">
-        <v>1520800</v>
+        <v>1595800</v>
       </c>
       <c r="I35" s="3">
-        <v>1392500</v>
+        <v>1461200</v>
       </c>
       <c r="J35" s="3">
-        <v>975800</v>
+        <v>1023900</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1485,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1498,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,51 +1511,51 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7677700</v>
+        <v>8056600</v>
       </c>
       <c r="E41" s="3">
-        <v>7996500</v>
+        <v>8391100</v>
       </c>
       <c r="F41" s="3">
-        <v>6994100</v>
+        <v>7339200</v>
       </c>
       <c r="G41" s="3">
-        <v>6378200</v>
+        <v>6693000</v>
       </c>
       <c r="H41" s="3">
-        <v>6016500</v>
+        <v>6313400</v>
       </c>
       <c r="I41" s="3">
-        <v>2660400</v>
+        <v>2791700</v>
       </c>
       <c r="J41" s="3">
-        <v>2856300</v>
+        <v>2997300</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>30713000</v>
+        <v>32228600</v>
       </c>
       <c r="E42" s="3">
-        <v>31937200</v>
+        <v>33513200</v>
       </c>
       <c r="F42" s="3">
-        <v>21134900</v>
+        <v>22177900</v>
       </c>
       <c r="G42" s="3">
-        <v>22670700</v>
+        <v>23789400</v>
       </c>
       <c r="H42" s="3">
-        <v>21624000</v>
+        <v>22691100</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
@@ -1530,7 +1565,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1557,7 +1592,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1584,7 +1619,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1611,7 +1646,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1638,18 +1673,18 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68600</v>
+        <v>72000</v>
       </c>
       <c r="E47" s="3">
-        <v>51800</v>
+        <v>54400</v>
       </c>
       <c r="F47" s="3">
-        <v>50900</v>
+        <v>53400</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
@@ -1665,61 +1700,61 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1304300</v>
+        <v>1368600</v>
       </c>
       <c r="E48" s="3">
-        <v>1286800</v>
+        <v>1350300</v>
       </c>
       <c r="F48" s="3">
-        <v>1200700</v>
+        <v>1260000</v>
       </c>
       <c r="G48" s="3">
-        <v>809100</v>
+        <v>849000</v>
       </c>
       <c r="H48" s="3">
-        <v>758800</v>
+        <v>796300</v>
       </c>
       <c r="I48" s="3">
-        <v>754200</v>
+        <v>791500</v>
       </c>
       <c r="J48" s="3">
-        <v>748500</v>
+        <v>785500</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16200</v>
+        <v>17000</v>
       </c>
       <c r="E49" s="3">
-        <v>16300</v>
+        <v>17100</v>
       </c>
       <c r="F49" s="3">
-        <v>17300</v>
+        <v>18200</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
       </c>
       <c r="H49" s="3">
-        <v>19700</v>
+        <v>20700</v>
       </c>
       <c r="I49" s="3">
-        <v>19700</v>
+        <v>20700</v>
       </c>
       <c r="J49" s="3">
-        <v>19700</v>
+        <v>20700</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1746,7 +1781,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1773,34 +1808,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1077400</v>
+        <v>1130500</v>
       </c>
       <c r="E52" s="3">
-        <v>1546900</v>
+        <v>1623200</v>
       </c>
       <c r="F52" s="3">
-        <v>683700</v>
+        <v>717400</v>
       </c>
       <c r="G52" s="3">
-        <v>222300</v>
+        <v>233300</v>
       </c>
       <c r="H52" s="3">
-        <v>128100</v>
+        <v>134400</v>
       </c>
       <c r="I52" s="3">
-        <v>369400</v>
+        <v>387600</v>
       </c>
       <c r="J52" s="3">
-        <v>386300</v>
+        <v>405400</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1827,34 +1862,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>154926000</v>
+        <v>162571000</v>
       </c>
       <c r="E54" s="3">
-        <v>135833000</v>
+        <v>142536000</v>
       </c>
       <c r="F54" s="3">
-        <v>126605000</v>
+        <v>132852000</v>
       </c>
       <c r="G54" s="3">
-        <v>113834000</v>
+        <v>119451000</v>
       </c>
       <c r="H54" s="3">
-        <v>103042000</v>
+        <v>108126000</v>
       </c>
       <c r="I54" s="3">
-        <v>92990400</v>
+        <v>97579200</v>
       </c>
       <c r="J54" s="3">
-        <v>85337700</v>
+        <v>89548900</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,7 +1902,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,34 +1915,34 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4343800</v>
+        <v>4558200</v>
       </c>
       <c r="E57" s="3">
-        <v>3653900</v>
+        <v>3834200</v>
       </c>
       <c r="F57" s="3">
-        <v>2750200</v>
+        <v>2885900</v>
       </c>
       <c r="G57" s="3">
-        <v>2440500</v>
+        <v>2560900</v>
       </c>
       <c r="H57" s="3">
-        <v>2645300</v>
+        <v>2775800</v>
       </c>
       <c r="I57" s="3">
-        <v>2717700</v>
+        <v>2851900</v>
       </c>
       <c r="J57" s="3">
-        <v>2006500</v>
+        <v>2105500</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1934,34 +1969,34 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="E59" s="3">
-        <v>10900</v>
+        <v>11400</v>
       </c>
       <c r="F59" s="3">
-        <v>452800</v>
+        <v>475200</v>
       </c>
       <c r="G59" s="3">
-        <v>450600</v>
+        <v>472800</v>
       </c>
       <c r="H59" s="3">
-        <v>408200</v>
+        <v>428300</v>
       </c>
       <c r="I59" s="3">
-        <v>363500</v>
+        <v>381500</v>
       </c>
       <c r="J59" s="3">
-        <v>296900</v>
+        <v>311500</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1988,51 +2023,51 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31433800</v>
+        <v>32984900</v>
       </c>
       <c r="E61" s="3">
-        <v>25779600</v>
+        <v>27051700</v>
       </c>
       <c r="F61" s="3">
-        <v>30248100</v>
+        <v>31740800</v>
       </c>
       <c r="G61" s="3">
-        <v>29110500</v>
+        <v>30547000</v>
       </c>
       <c r="H61" s="3">
-        <v>25292100</v>
+        <v>26540200</v>
       </c>
       <c r="I61" s="3">
-        <v>23824000</v>
+        <v>24999600</v>
       </c>
       <c r="J61" s="3">
-        <v>22226700</v>
+        <v>23323500</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>393700</v>
+        <v>413200</v>
       </c>
       <c r="E62" s="3">
-        <v>351600</v>
+        <v>369000</v>
       </c>
       <c r="F62" s="3">
-        <v>402100</v>
+        <v>421900</v>
       </c>
       <c r="G62" s="3">
-        <v>351500</v>
+        <v>368800</v>
       </c>
       <c r="H62" s="3">
-        <v>295500</v>
+        <v>310100</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -2042,7 +2077,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2069,7 +2104,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2131,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2123,34 +2158,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>139681000</v>
+        <v>146574000</v>
       </c>
       <c r="E66" s="3">
-        <v>121415000</v>
+        <v>127406000</v>
       </c>
       <c r="F66" s="3">
-        <v>113636000</v>
+        <v>119244000</v>
       </c>
       <c r="G66" s="3">
-        <v>102161000</v>
+        <v>107203000</v>
       </c>
       <c r="H66" s="3">
-        <v>92509600</v>
+        <v>97074700</v>
       </c>
       <c r="I66" s="3">
-        <v>83515000</v>
+        <v>87636200</v>
       </c>
       <c r="J66" s="3">
-        <v>76893800</v>
+        <v>80688300</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,7 +2198,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2190,7 +2225,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2217,7 +2252,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2244,7 +2279,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2271,34 +2306,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9877000</v>
+        <v>10364400</v>
       </c>
       <c r="E72" s="3">
-        <v>9105000</v>
+        <v>9554300</v>
       </c>
       <c r="F72" s="3">
-        <v>7704000</v>
+        <v>8084100</v>
       </c>
       <c r="G72" s="3">
-        <v>6797500</v>
+        <v>7132900</v>
       </c>
       <c r="H72" s="3">
-        <v>5655400</v>
+        <v>5934500</v>
       </c>
       <c r="I72" s="3">
-        <v>4758200</v>
+        <v>4993000</v>
       </c>
       <c r="J72" s="3">
-        <v>3814800</v>
+        <v>4003000</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2325,7 +2360,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2352,7 +2387,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2379,34 +2414,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15244800</v>
+        <v>15997100</v>
       </c>
       <c r="E76" s="3">
-        <v>14418300</v>
+        <v>15129800</v>
       </c>
       <c r="F76" s="3">
-        <v>12968500</v>
+        <v>13608400</v>
       </c>
       <c r="G76" s="3">
-        <v>11672300</v>
+        <v>12248300</v>
       </c>
       <c r="H76" s="3">
-        <v>10532000</v>
+        <v>11051800</v>
       </c>
       <c r="I76" s="3">
-        <v>9475500</v>
+        <v>9943000</v>
       </c>
       <c r="J76" s="3">
-        <v>8443900</v>
+        <v>8860600</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2433,12 +2468,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2465,34 +2500,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1062700</v>
+        <v>1115200</v>
       </c>
       <c r="E81" s="3">
-        <v>1404000</v>
+        <v>1473200</v>
       </c>
       <c r="F81" s="3">
-        <v>1402800</v>
+        <v>1472000</v>
       </c>
       <c r="G81" s="3">
-        <v>1687600</v>
+        <v>1770900</v>
       </c>
       <c r="H81" s="3">
-        <v>1520800</v>
+        <v>1595800</v>
       </c>
       <c r="I81" s="3">
-        <v>1392500</v>
+        <v>1461200</v>
       </c>
       <c r="J81" s="3">
-        <v>975800</v>
+        <v>1023900</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,34 +2540,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>143200</v>
+        <v>150300</v>
       </c>
       <c r="E83" s="3">
-        <v>143900</v>
+        <v>151000</v>
       </c>
       <c r="F83" s="3">
-        <v>131800</v>
+        <v>138300</v>
       </c>
       <c r="G83" s="3">
-        <v>125400</v>
+        <v>131600</v>
       </c>
       <c r="H83" s="3">
-        <v>116000</v>
+        <v>121700</v>
       </c>
       <c r="I83" s="3">
-        <v>100700</v>
+        <v>105700</v>
       </c>
       <c r="J83" s="3">
-        <v>104000</v>
+        <v>109100</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2559,7 +2594,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2586,7 +2621,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2613,7 +2648,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2640,7 +2675,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2667,34 +2702,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2671000</v>
+        <v>2802800</v>
       </c>
       <c r="E89" s="3">
-        <v>7253200</v>
+        <v>7611100</v>
       </c>
       <c r="F89" s="3">
-        <v>3258300</v>
+        <v>3419100</v>
       </c>
       <c r="G89" s="3">
-        <v>-1691200</v>
+        <v>-1774700</v>
       </c>
       <c r="H89" s="3">
-        <v>932200</v>
+        <v>978200</v>
       </c>
       <c r="I89" s="3">
-        <v>2410700</v>
+        <v>2529600</v>
       </c>
       <c r="J89" s="3">
-        <v>-938900</v>
+        <v>-985300</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,34 +2742,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-143600</v>
+        <v>-150700</v>
       </c>
       <c r="E91" s="3">
-        <v>-181400</v>
+        <v>-190400</v>
       </c>
       <c r="F91" s="3">
-        <v>-116900</v>
+        <v>-122700</v>
       </c>
       <c r="G91" s="3">
-        <v>-171500</v>
+        <v>-180000</v>
       </c>
       <c r="H91" s="3">
-        <v>-115400</v>
+        <v>-121100</v>
       </c>
       <c r="I91" s="3">
-        <v>-86100</v>
+        <v>-90400</v>
       </c>
       <c r="J91" s="3">
-        <v>-83400</v>
+        <v>-87500</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2761,7 +2796,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2788,34 +2823,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6969000</v>
+        <v>-7312900</v>
       </c>
       <c r="E94" s="3">
-        <v>-221300</v>
+        <v>-232200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1628700</v>
+        <v>-1709100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1782000</v>
+        <v>-1869900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2296800</v>
+        <v>-2410100</v>
       </c>
       <c r="I94" s="3">
-        <v>-2638600</v>
+        <v>-2768800</v>
       </c>
       <c r="J94" s="3">
-        <v>-2930000</v>
+        <v>-3074600</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,34 +2863,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-236500</v>
+        <v>-248100</v>
       </c>
       <c r="E96" s="3">
-        <v>-471700</v>
+        <v>-495000</v>
       </c>
       <c r="F96" s="3">
-        <v>-475800</v>
+        <v>-499200</v>
       </c>
       <c r="G96" s="3">
-        <v>-425000</v>
+        <v>-446000</v>
       </c>
       <c r="H96" s="3">
-        <v>-372600</v>
+        <v>-391000</v>
       </c>
       <c r="I96" s="3">
-        <v>-305800</v>
+        <v>-320900</v>
       </c>
       <c r="J96" s="3">
-        <v>-262000</v>
+        <v>-274900</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2882,7 +2917,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2909,7 +2944,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2936,84 +2971,84 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5467300</v>
+        <v>5737100</v>
       </c>
       <c r="E100" s="3">
-        <v>-4887700</v>
+        <v>-5128900</v>
       </c>
       <c r="F100" s="3">
-        <v>801200</v>
+        <v>840700</v>
       </c>
       <c r="G100" s="3">
-        <v>3421200</v>
+        <v>3590000</v>
       </c>
       <c r="H100" s="3">
-        <v>1084800</v>
+        <v>1138300</v>
       </c>
       <c r="I100" s="3">
-        <v>1279200</v>
+        <v>1342300</v>
       </c>
       <c r="J100" s="3">
-        <v>4056700</v>
+        <v>4256900</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E101" s="3">
-        <v>-14500</v>
+        <v>-15200</v>
       </c>
       <c r="F101" s="3">
-        <v>-33200</v>
+        <v>-34900</v>
       </c>
       <c r="G101" s="3">
-        <v>-33500</v>
+        <v>-35200</v>
       </c>
       <c r="H101" s="3">
-        <v>126500</v>
+        <v>132700</v>
       </c>
       <c r="I101" s="3">
-        <v>80600</v>
+        <v>84600</v>
       </c>
       <c r="J101" s="3">
-        <v>56300</v>
+        <v>59100</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1172400</v>
+        <v>1230300</v>
       </c>
       <c r="E102" s="3">
-        <v>2129700</v>
+        <v>2234800</v>
       </c>
       <c r="F102" s="3">
-        <v>2397600</v>
+        <v>2515900</v>
       </c>
       <c r="G102" s="3">
-        <v>-85600</v>
+        <v>-89800</v>
       </c>
       <c r="H102" s="3">
-        <v>-153300</v>
+        <v>-160900</v>
       </c>
       <c r="I102" s="3">
-        <v>1132000</v>
+        <v>1187800</v>
       </c>
       <c r="J102" s="3">
-        <v>244000</v>
+        <v>256100</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/IBN_YR_FIN.xlsx
+++ b/Financials/Yearly/IBN_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3E7BB5-BECA-48E2-9B11-E3914A9D0419}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="IBN" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>IBN</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,87 +654,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E7" s="2">
         <v>43190</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42825</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42460</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42094</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41729</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41364</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40999</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8988700</v>
+        <v>10106200</v>
       </c>
       <c r="E8" s="3">
-        <v>8811900</v>
+        <v>8727600</v>
       </c>
       <c r="F8" s="3">
-        <v>8573900</v>
+        <v>8556000</v>
       </c>
       <c r="G8" s="3">
-        <v>7947800</v>
+        <v>8324800</v>
       </c>
       <c r="H8" s="3">
-        <v>7154700</v>
+        <v>7716900</v>
       </c>
       <c r="I8" s="3">
-        <v>6490300</v>
+        <v>6946900</v>
       </c>
       <c r="J8" s="3">
+        <v>6301800</v>
+      </c>
+      <c r="K8" s="3">
         <v>5494100</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +765,12 @@
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -861,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -915,36 +899,42 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-133300</v>
+        <v>-132800</v>
       </c>
       <c r="E15" s="3">
-        <v>-131800</v>
+        <v>-129500</v>
       </c>
       <c r="F15" s="3">
-        <v>-121900</v>
+        <v>-128000</v>
       </c>
       <c r="G15" s="3">
-        <v>-115400</v>
+        <v>-118400</v>
       </c>
       <c r="H15" s="3">
-        <v>-104000</v>
+        <v>-112100</v>
       </c>
       <c r="I15" s="3">
-        <v>-90400</v>
+        <v>-101000</v>
       </c>
       <c r="J15" s="3">
+        <v>-87800</v>
+      </c>
+      <c r="K15" s="3">
         <v>-97100</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -953,62 +943,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7271400</v>
+        <v>8322900</v>
       </c>
       <c r="E17" s="3">
-        <v>7314000</v>
+        <v>7060200</v>
       </c>
       <c r="F17" s="3">
-        <v>6032000</v>
+        <v>7101600</v>
       </c>
       <c r="G17" s="3">
-        <v>5198200</v>
+        <v>5856800</v>
       </c>
       <c r="H17" s="3">
-        <v>4655000</v>
+        <v>5047200</v>
       </c>
       <c r="I17" s="3">
-        <v>4314400</v>
+        <v>4519800</v>
       </c>
       <c r="J17" s="3">
+        <v>4189100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3768900</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1717300</v>
+        <v>1783300</v>
       </c>
       <c r="E18" s="3">
-        <v>1497900</v>
+        <v>1667400</v>
       </c>
       <c r="F18" s="3">
-        <v>2541800</v>
+        <v>1454400</v>
       </c>
       <c r="G18" s="3">
-        <v>2749600</v>
+        <v>2468000</v>
       </c>
       <c r="H18" s="3">
-        <v>2499700</v>
+        <v>2669700</v>
       </c>
       <c r="I18" s="3">
-        <v>2175900</v>
+        <v>2427100</v>
       </c>
       <c r="J18" s="3">
+        <v>2112700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1725200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,62 +1017,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-129800</v>
+        <v>-743200</v>
       </c>
       <c r="E20" s="3">
-        <v>498900</v>
+        <v>-126100</v>
       </c>
       <c r="F20" s="3">
-        <v>-473400</v>
+        <v>484500</v>
       </c>
       <c r="G20" s="3">
-        <v>-98500</v>
+        <v>-459700</v>
       </c>
       <c r="H20" s="3">
-        <v>-145400</v>
+        <v>-95600</v>
       </c>
       <c r="I20" s="3">
-        <v>-206900</v>
+        <v>-141100</v>
       </c>
       <c r="J20" s="3">
+        <v>-200900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-179900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1737800</v>
+        <v>1187000</v>
       </c>
       <c r="E21" s="3">
-        <v>2148000</v>
+        <v>1687400</v>
       </c>
       <c r="F21" s="3">
-        <v>2206900</v>
+        <v>2085600</v>
       </c>
       <c r="G21" s="3">
-        <v>2782800</v>
+        <v>2142800</v>
       </c>
       <c r="H21" s="3">
-        <v>2476100</v>
+        <v>2702000</v>
       </c>
       <c r="I21" s="3">
-        <v>2074800</v>
+        <v>2404200</v>
       </c>
       <c r="J21" s="3">
+        <v>2014500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1654500</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1100,63 +1104,72 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1587500</v>
+        <v>1040100</v>
       </c>
       <c r="E23" s="3">
-        <v>1996800</v>
+        <v>1541400</v>
       </c>
       <c r="F23" s="3">
-        <v>2068400</v>
+        <v>1938800</v>
       </c>
       <c r="G23" s="3">
-        <v>2651100</v>
+        <v>2008300</v>
       </c>
       <c r="H23" s="3">
-        <v>2354300</v>
+        <v>2574100</v>
       </c>
       <c r="I23" s="3">
-        <v>1969000</v>
+        <v>2285900</v>
       </c>
       <c r="J23" s="3">
+        <v>1911800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1545300</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>271700</v>
+        <v>241400</v>
       </c>
       <c r="E24" s="3">
-        <v>357000</v>
+        <v>263800</v>
       </c>
       <c r="F24" s="3">
-        <v>488400</v>
+        <v>346700</v>
       </c>
       <c r="G24" s="3">
-        <v>779600</v>
+        <v>474200</v>
       </c>
       <c r="H24" s="3">
-        <v>666500</v>
+        <v>757000</v>
       </c>
       <c r="I24" s="3">
-        <v>504200</v>
+        <v>647200</v>
       </c>
       <c r="J24" s="3">
+        <v>489600</v>
+      </c>
+      <c r="K24" s="3">
         <v>397500</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1315800</v>
+        <v>798800</v>
       </c>
       <c r="E26" s="3">
-        <v>1639800</v>
+        <v>1277600</v>
       </c>
       <c r="F26" s="3">
-        <v>1580000</v>
+        <v>1592200</v>
       </c>
       <c r="G26" s="3">
-        <v>1871500</v>
+        <v>1534100</v>
       </c>
       <c r="H26" s="3">
-        <v>1687800</v>
+        <v>1817100</v>
       </c>
       <c r="I26" s="3">
-        <v>1464800</v>
+        <v>1638700</v>
       </c>
       <c r="J26" s="3">
+        <v>1422200</v>
+      </c>
+      <c r="K26" s="3">
         <v>1147800</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1115200</v>
+        <v>597300</v>
       </c>
       <c r="E27" s="3">
-        <v>1473200</v>
+        <v>1082800</v>
       </c>
       <c r="F27" s="3">
-        <v>1472000</v>
+        <v>1430400</v>
       </c>
       <c r="G27" s="3">
-        <v>1770900</v>
+        <v>1429300</v>
       </c>
       <c r="H27" s="3">
-        <v>1595800</v>
+        <v>1719500</v>
       </c>
       <c r="I27" s="3">
-        <v>1461200</v>
+        <v>1549500</v>
       </c>
       <c r="J27" s="3">
+        <v>1418800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1023900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1262,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1289,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1316,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1343,63 +1374,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>129800</v>
+        <v>743200</v>
       </c>
       <c r="E32" s="3">
-        <v>-498900</v>
+        <v>126100</v>
       </c>
       <c r="F32" s="3">
-        <v>473400</v>
+        <v>-484500</v>
       </c>
       <c r="G32" s="3">
-        <v>98500</v>
+        <v>459700</v>
       </c>
       <c r="H32" s="3">
-        <v>145400</v>
+        <v>95600</v>
       </c>
       <c r="I32" s="3">
-        <v>206900</v>
+        <v>141100</v>
       </c>
       <c r="J32" s="3">
+        <v>200900</v>
+      </c>
+      <c r="K32" s="3">
         <v>179900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1115200</v>
+        <v>597300</v>
       </c>
       <c r="E33" s="3">
-        <v>1473200</v>
+        <v>1082800</v>
       </c>
       <c r="F33" s="3">
-        <v>1472000</v>
+        <v>1430400</v>
       </c>
       <c r="G33" s="3">
-        <v>1770900</v>
+        <v>1429300</v>
       </c>
       <c r="H33" s="3">
-        <v>1595800</v>
+        <v>1719500</v>
       </c>
       <c r="I33" s="3">
-        <v>1461200</v>
+        <v>1549500</v>
       </c>
       <c r="J33" s="3">
+        <v>1418800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1023900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1424,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1115200</v>
+        <v>597300</v>
       </c>
       <c r="E35" s="3">
-        <v>1473200</v>
+        <v>1082800</v>
       </c>
       <c r="F35" s="3">
-        <v>1472000</v>
+        <v>1430400</v>
       </c>
       <c r="G35" s="3">
-        <v>1770900</v>
+        <v>1429300</v>
       </c>
       <c r="H35" s="3">
-        <v>1595800</v>
+        <v>1719500</v>
       </c>
       <c r="I35" s="3">
-        <v>1461200</v>
+        <v>1549500</v>
       </c>
       <c r="J35" s="3">
+        <v>1418800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1023900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E38" s="2">
         <v>43190</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42825</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42460</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42094</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41729</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41364</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40999</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1497,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1510,62 +1560,69 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8056600</v>
+        <v>8052700</v>
       </c>
       <c r="E41" s="3">
-        <v>8391100</v>
+        <v>7822600</v>
       </c>
       <c r="F41" s="3">
-        <v>7339200</v>
+        <v>8147400</v>
       </c>
       <c r="G41" s="3">
-        <v>6693000</v>
+        <v>7126000</v>
       </c>
       <c r="H41" s="3">
-        <v>6313400</v>
+        <v>6498600</v>
       </c>
       <c r="I41" s="3">
-        <v>2791700</v>
+        <v>6130100</v>
       </c>
       <c r="J41" s="3">
+        <v>2710600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2997300</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>32228600</v>
+        <v>33400900</v>
       </c>
       <c r="E42" s="3">
-        <v>33513200</v>
+        <v>31292500</v>
       </c>
       <c r="F42" s="3">
-        <v>22177900</v>
+        <v>32539800</v>
       </c>
       <c r="G42" s="3">
-        <v>23789400</v>
+        <v>21533700</v>
       </c>
       <c r="H42" s="3">
-        <v>22691100</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
+        <v>23098500</v>
+      </c>
+      <c r="I42" s="3">
+        <v>22032000</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1590,9 +1647,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1617,9 +1677,12 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1644,9 +1707,12 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1671,23 +1737,26 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>72000</v>
+        <v>102400</v>
       </c>
       <c r="E47" s="3">
-        <v>54400</v>
+        <v>69900</v>
       </c>
       <c r="F47" s="3">
-        <v>53400</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
+        <v>52800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>51900</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>5</v>
@@ -1698,63 +1767,72 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1368600</v>
+        <v>1356300</v>
       </c>
       <c r="E48" s="3">
-        <v>1350300</v>
+        <v>1328900</v>
       </c>
       <c r="F48" s="3">
-        <v>1260000</v>
+        <v>1311000</v>
       </c>
       <c r="G48" s="3">
-        <v>849000</v>
+        <v>1223400</v>
       </c>
       <c r="H48" s="3">
-        <v>796300</v>
+        <v>824300</v>
       </c>
       <c r="I48" s="3">
-        <v>791500</v>
+        <v>773200</v>
       </c>
       <c r="J48" s="3">
+        <v>768500</v>
+      </c>
+      <c r="K48" s="3">
         <v>785500</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17000</v>
+        <v>17700</v>
       </c>
       <c r="E49" s="3">
-        <v>17100</v>
+        <v>16500</v>
       </c>
       <c r="F49" s="3">
-        <v>18200</v>
+        <v>16600</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>17600</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K49" s="3">
         <v>20700</v>
       </c>
-      <c r="I49" s="3">
-        <v>20700</v>
-      </c>
-      <c r="J49" s="3">
-        <v>20700</v>
-      </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1779,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1806,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1130500</v>
+        <v>1535600</v>
       </c>
       <c r="E52" s="3">
-        <v>1623200</v>
+        <v>1097700</v>
       </c>
       <c r="F52" s="3">
-        <v>717400</v>
+        <v>1576100</v>
       </c>
       <c r="G52" s="3">
-        <v>233300</v>
+        <v>696600</v>
       </c>
       <c r="H52" s="3">
-        <v>134400</v>
+        <v>226500</v>
       </c>
       <c r="I52" s="3">
-        <v>387600</v>
+        <v>130500</v>
       </c>
       <c r="J52" s="3">
+        <v>376400</v>
+      </c>
+      <c r="K52" s="3">
         <v>405400</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1860,36 +1947,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>162571000</v>
+        <v>173927000</v>
       </c>
       <c r="E54" s="3">
-        <v>142536000</v>
+        <v>157849000</v>
       </c>
       <c r="F54" s="3">
-        <v>132852000</v>
+        <v>138396000</v>
       </c>
       <c r="G54" s="3">
-        <v>119451000</v>
+        <v>128993000</v>
       </c>
       <c r="H54" s="3">
-        <v>108126000</v>
+        <v>115982000</v>
       </c>
       <c r="I54" s="3">
-        <v>97579200</v>
+        <v>104986000</v>
       </c>
       <c r="J54" s="3">
+        <v>94745000</v>
+      </c>
+      <c r="K54" s="3">
         <v>89548900</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1901,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1914,35 +2008,39 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4558200</v>
+        <v>5245400</v>
       </c>
       <c r="E57" s="3">
-        <v>3834200</v>
+        <v>4425800</v>
       </c>
       <c r="F57" s="3">
-        <v>2885900</v>
+        <v>3722900</v>
       </c>
       <c r="G57" s="3">
-        <v>2560900</v>
+        <v>2802100</v>
       </c>
       <c r="H57" s="3">
-        <v>2775800</v>
+        <v>2486500</v>
       </c>
       <c r="I57" s="3">
-        <v>2851900</v>
+        <v>2695200</v>
       </c>
       <c r="J57" s="3">
+        <v>2769000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2105500</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1967,36 +2065,42 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5500</v>
+        <v>1800</v>
       </c>
       <c r="E59" s="3">
-        <v>11400</v>
+        <v>5400</v>
       </c>
       <c r="F59" s="3">
-        <v>475200</v>
+        <v>11100</v>
       </c>
       <c r="G59" s="3">
-        <v>472800</v>
+        <v>461400</v>
       </c>
       <c r="H59" s="3">
-        <v>428300</v>
+        <v>459100</v>
       </c>
       <c r="I59" s="3">
-        <v>381500</v>
+        <v>415900</v>
       </c>
       <c r="J59" s="3">
+        <v>370400</v>
+      </c>
+      <c r="K59" s="3">
         <v>311500</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2021,63 +2125,72 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32984900</v>
+        <v>29261400</v>
       </c>
       <c r="E61" s="3">
-        <v>27051700</v>
+        <v>32026900</v>
       </c>
       <c r="F61" s="3">
-        <v>31740800</v>
+        <v>26266000</v>
       </c>
       <c r="G61" s="3">
-        <v>30547000</v>
+        <v>30818900</v>
       </c>
       <c r="H61" s="3">
-        <v>26540200</v>
+        <v>29659800</v>
       </c>
       <c r="I61" s="3">
-        <v>24999600</v>
+        <v>25769300</v>
       </c>
       <c r="J61" s="3">
+        <v>24273500</v>
+      </c>
+      <c r="K61" s="3">
         <v>23323500</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>413200</v>
+        <v>442200</v>
       </c>
       <c r="E62" s="3">
-        <v>369000</v>
+        <v>401200</v>
       </c>
       <c r="F62" s="3">
-        <v>421900</v>
+        <v>358300</v>
       </c>
       <c r="G62" s="3">
-        <v>368800</v>
+        <v>409700</v>
       </c>
       <c r="H62" s="3">
-        <v>310100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+        <v>358100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>301100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2102,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2129,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2156,36 +2275,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>146574000</v>
+        <v>157886000</v>
       </c>
       <c r="E66" s="3">
-        <v>127406000</v>
+        <v>142317000</v>
       </c>
       <c r="F66" s="3">
-        <v>119244000</v>
+        <v>123705000</v>
       </c>
       <c r="G66" s="3">
-        <v>107203000</v>
+        <v>115780000</v>
       </c>
       <c r="H66" s="3">
-        <v>97074700</v>
+        <v>104089000</v>
       </c>
       <c r="I66" s="3">
-        <v>87636200</v>
+        <v>94255100</v>
       </c>
       <c r="J66" s="3">
+        <v>85090700</v>
+      </c>
+      <c r="K66" s="3">
         <v>80688300</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2197,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2223,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2250,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2277,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2304,36 +2439,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10364400</v>
+        <v>10358000</v>
       </c>
       <c r="E72" s="3">
-        <v>9554300</v>
+        <v>10063400</v>
       </c>
       <c r="F72" s="3">
-        <v>8084100</v>
+        <v>9276800</v>
       </c>
       <c r="G72" s="3">
-        <v>7132900</v>
+        <v>7849300</v>
       </c>
       <c r="H72" s="3">
-        <v>5934500</v>
+        <v>6925700</v>
       </c>
       <c r="I72" s="3">
-        <v>4993000</v>
+        <v>5762100</v>
       </c>
       <c r="J72" s="3">
+        <v>4848000</v>
+      </c>
+      <c r="K72" s="3">
         <v>4003000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2358,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2385,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2412,36 +2559,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15997100</v>
+        <v>16041200</v>
       </c>
       <c r="E76" s="3">
-        <v>15129800</v>
+        <v>15532400</v>
       </c>
       <c r="F76" s="3">
-        <v>13608400</v>
+        <v>14690300</v>
       </c>
       <c r="G76" s="3">
-        <v>12248300</v>
+        <v>13213100</v>
       </c>
       <c r="H76" s="3">
-        <v>11051800</v>
+        <v>11892500</v>
       </c>
       <c r="I76" s="3">
-        <v>9943000</v>
+        <v>10730800</v>
       </c>
       <c r="J76" s="3">
+        <v>9654200</v>
+      </c>
+      <c r="K76" s="3">
         <v>8860600</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2466,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="E80" s="2">
         <v>43190</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42825</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42460</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42094</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41729</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41364</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40999</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1115200</v>
+        <v>597300</v>
       </c>
       <c r="E81" s="3">
-        <v>1473200</v>
+        <v>1082800</v>
       </c>
       <c r="F81" s="3">
-        <v>1472000</v>
+        <v>1430400</v>
       </c>
       <c r="G81" s="3">
-        <v>1770900</v>
+        <v>1429300</v>
       </c>
       <c r="H81" s="3">
-        <v>1595800</v>
+        <v>1719500</v>
       </c>
       <c r="I81" s="3">
-        <v>1461200</v>
+        <v>1549500</v>
       </c>
       <c r="J81" s="3">
+        <v>1418800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1023900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2539,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>150300</v>
+        <v>146800</v>
       </c>
       <c r="E83" s="3">
-        <v>151000</v>
+        <v>145900</v>
       </c>
       <c r="F83" s="3">
-        <v>138300</v>
+        <v>146600</v>
       </c>
       <c r="G83" s="3">
-        <v>131600</v>
+        <v>134300</v>
       </c>
       <c r="H83" s="3">
-        <v>121700</v>
+        <v>127800</v>
       </c>
       <c r="I83" s="3">
-        <v>105700</v>
+        <v>118200</v>
       </c>
       <c r="J83" s="3">
+        <v>102600</v>
+      </c>
+      <c r="K83" s="3">
         <v>109100</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2592,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2619,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2646,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2673,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2700,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2802800</v>
+        <v>6833400</v>
       </c>
       <c r="E89" s="3">
-        <v>7611100</v>
+        <v>2721400</v>
       </c>
       <c r="F89" s="3">
-        <v>3419100</v>
+        <v>7390000</v>
       </c>
       <c r="G89" s="3">
-        <v>-1774700</v>
+        <v>3319800</v>
       </c>
       <c r="H89" s="3">
-        <v>978200</v>
+        <v>-1723100</v>
       </c>
       <c r="I89" s="3">
-        <v>2529600</v>
+        <v>949800</v>
       </c>
       <c r="J89" s="3">
+        <v>2456200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-985300</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2741,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-150700</v>
+        <v>-161200</v>
       </c>
       <c r="E91" s="3">
-        <v>-190400</v>
+        <v>-146300</v>
       </c>
       <c r="F91" s="3">
-        <v>-122700</v>
+        <v>-184900</v>
       </c>
       <c r="G91" s="3">
-        <v>-180000</v>
+        <v>-119100</v>
       </c>
       <c r="H91" s="3">
-        <v>-121100</v>
+        <v>-174700</v>
       </c>
       <c r="I91" s="3">
-        <v>-90400</v>
+        <v>-117600</v>
       </c>
       <c r="J91" s="3">
+        <v>-87700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-87500</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2794,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2821,36 +3012,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-7312900</v>
+        <v>-4232700</v>
       </c>
       <c r="E94" s="3">
-        <v>-232200</v>
+        <v>-7100500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1709100</v>
+        <v>-225400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1869900</v>
+        <v>-1659400</v>
       </c>
       <c r="H94" s="3">
-        <v>-2410100</v>
+        <v>-1815600</v>
       </c>
       <c r="I94" s="3">
-        <v>-2768800</v>
+        <v>-2340100</v>
       </c>
       <c r="J94" s="3">
+        <v>-2688400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3074600</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2862,35 +3059,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-248100</v>
+        <v>-164100</v>
       </c>
       <c r="E96" s="3">
-        <v>-495000</v>
+        <v>-240900</v>
       </c>
       <c r="F96" s="3">
-        <v>-499200</v>
+        <v>-480600</v>
       </c>
       <c r="G96" s="3">
-        <v>-446000</v>
+        <v>-484700</v>
       </c>
       <c r="H96" s="3">
-        <v>-391000</v>
+        <v>-433000</v>
       </c>
       <c r="I96" s="3">
-        <v>-320900</v>
+        <v>-379600</v>
       </c>
       <c r="J96" s="3">
+        <v>-311600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-274900</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2915,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2942,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2969,88 +3176,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>5737100</v>
+        <v>-2807600</v>
       </c>
       <c r="E100" s="3">
-        <v>-5128900</v>
+        <v>5570500</v>
       </c>
       <c r="F100" s="3">
-        <v>840700</v>
+        <v>-4979900</v>
       </c>
       <c r="G100" s="3">
-        <v>3590000</v>
+        <v>816300</v>
       </c>
       <c r="H100" s="3">
-        <v>1138300</v>
+        <v>3485700</v>
       </c>
       <c r="I100" s="3">
-        <v>1342300</v>
+        <v>1105300</v>
       </c>
       <c r="J100" s="3">
+        <v>1303400</v>
+      </c>
+      <c r="K100" s="3">
         <v>4256900</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3300</v>
+        <v>-18900</v>
       </c>
       <c r="E101" s="3">
-        <v>-15200</v>
+        <v>3200</v>
       </c>
       <c r="F101" s="3">
-        <v>-34900</v>
+        <v>-14800</v>
       </c>
       <c r="G101" s="3">
-        <v>-35200</v>
+        <v>-33900</v>
       </c>
       <c r="H101" s="3">
-        <v>132700</v>
+        <v>-34200</v>
       </c>
       <c r="I101" s="3">
-        <v>84600</v>
+        <v>128900</v>
       </c>
       <c r="J101" s="3">
+        <v>82200</v>
+      </c>
+      <c r="K101" s="3">
         <v>59100</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1230300</v>
+        <v>-225800</v>
       </c>
       <c r="E102" s="3">
-        <v>2234800</v>
+        <v>1194600</v>
       </c>
       <c r="F102" s="3">
-        <v>2515900</v>
+        <v>2169900</v>
       </c>
       <c r="G102" s="3">
-        <v>-89800</v>
+        <v>2442800</v>
       </c>
       <c r="H102" s="3">
-        <v>-160900</v>
+        <v>-87200</v>
       </c>
       <c r="I102" s="3">
-        <v>1187800</v>
+        <v>-156200</v>
       </c>
       <c r="J102" s="3">
+        <v>1153300</v>
+      </c>
+      <c r="K102" s="3">
         <v>256100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
